--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
